--- a/data/ApiCases1.xlsx
+++ b/data/ApiCases1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13420"/>
+    <workbookView windowWidth="27120" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="测试案例" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
-  <si>
-    <t>测试ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>用例ID</t>
   </si>
   <si>
     <t>接口名称</t>
@@ -37,6 +40,9 @@
     <t>请求参数类别</t>
   </si>
   <si>
+    <t>请求头</t>
+  </si>
+  <si>
     <t>请求参数</t>
   </si>
   <si>
@@ -49,7 +55,10 @@
     <t>是否运行</t>
   </si>
   <si>
-    <t>Login1</t>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
   <si>
     <t>登陆接口</t>
@@ -61,31 +70,46 @@
     <t>/connect/oauth/tokens</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
     <t>json</t>
   </si>
   <si>
+    <t>{"x-business-id":"1","x-channel-id":"8"}</t>
+  </si>
+  <si>
     <t>{"grant_type": "password","client_id": "gaodingx","client_secret": "7da458070e57b98e11d00d9286f23537","os": "mac os","mobile_area_code": 86,"mobile": "18218080002","password": "111111"}</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Login2</t>
-  </si>
-  <si>
-    <t>登陆失败</t>
-  </si>
-  <si>
-    <t>{"grant_type": "password","client_id": "gaodingx","client_secret": "7da458070e57b98e11d00d9286f23537","os": "mac os","mobile_area_code": 86,"mobile": "18218086670","password": "111111"}</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>个人信息查看接口</t>
+  </si>
+  <si>
+    <t>查询个人信息</t>
+  </si>
+  <si>
+    <t>/api/website/ps/user/current</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"authorization":"Bearer ${token}$","x-business-id":"1","x-channel-id":"8"}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>"706691603"</t>
   </si>
 </sst>
 </file>
@@ -93,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,16 +138,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,17 +184,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -178,6 +217,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -185,67 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,13 +290,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,19 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,138 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,11 +495,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,41 +511,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,159 +560,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1050,128 +1077,147 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.0892857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.4732142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.0535714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.9821428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.8035714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5357142857143" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="15.4732142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.0892857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7857142857143" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.4732142857143" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.0535714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.9821428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.8035714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.2857142857143" style="2" customWidth="1"/>
+    <col min="10" max="10" width="38.5357142857143" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.1696428571429" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="36" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="106" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" ht="106" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2">
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3">
         <v>200</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="145" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" ht="145" customHeight="1" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="2">
-        <v>200</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>